--- a/modelos/OBAGRA4451177/OBAGRA4451177_Sell Out_metricas.xlsx
+++ b/modelos/OBAGRA4451177/OBAGRA4451177_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,81 +473,101 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45027</v>
+        <v>45021</v>
       </c>
       <c r="B2" t="n">
-        <v>82.87516395811477</v>
+        <v>62.84688339821308</v>
       </c>
       <c r="C2" t="n">
-        <v>51.88730410429106</v>
+        <v>34.50924936461199</v>
       </c>
       <c r="D2" t="n">
-        <v>112.0488231734134</v>
+        <v>92.14837796214144</v>
       </c>
       <c r="E2" t="n">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45026</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45040</v>
+        <v>45027</v>
       </c>
       <c r="B3" t="n">
-        <v>52.21315187418328</v>
+        <v>81.85261905717364</v>
       </c>
       <c r="C3" t="n">
-        <v>21.34094136674188</v>
+        <v>52.98721056596214</v>
       </c>
       <c r="D3" t="n">
-        <v>81.33113432383702</v>
+        <v>111.9979405361426</v>
       </c>
       <c r="E3" t="n">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45033</v>
+        <v>45026</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45057</v>
+        <v>45040</v>
       </c>
       <c r="B4" t="n">
-        <v>88.21396762942365</v>
+        <v>52.94063786299043</v>
       </c>
       <c r="C4" t="n">
-        <v>55.25554533647234</v>
+        <v>23.82394172678105</v>
       </c>
       <c r="D4" t="n">
-        <v>120.6229375568451</v>
+        <v>83.00629801519334</v>
       </c>
       <c r="E4" t="n">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45054</v>
+        <v>45033</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
+        <v>45057</v>
+      </c>
+      <c r="B5" t="n">
+        <v>86.92257475733427</v>
+      </c>
+      <c r="C5" t="n">
+        <v>55.30231773740757</v>
+      </c>
+      <c r="D5" t="n">
+        <v>116.8441313210075</v>
+      </c>
+      <c r="E5" t="n">
+        <v>152</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>45061</v>
       </c>
-      <c r="B5" t="n">
-        <v>65.65933584377663</v>
-      </c>
-      <c r="C5" t="n">
-        <v>36.78760631185959</v>
-      </c>
-      <c r="D5" t="n">
-        <v>97.17375836909983</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="B6" t="n">
+        <v>65.6758342321788</v>
+      </c>
+      <c r="C6" t="n">
+        <v>33.50628613684209</v>
+      </c>
+      <c r="D6" t="n">
+        <v>97.35947962980815</v>
+      </c>
+      <c r="E6" t="n">
         <v>63</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F6" s="2" t="n">
         <v>45054</v>
       </c>
     </row>
@@ -562,7 +582,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,22 +637,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1774.501811555713</v>
+        <v>1861.696482225375</v>
       </c>
       <c r="C2" t="n">
-        <v>42.12483604188523</v>
+        <v>43.14738094282636</v>
       </c>
       <c r="D2" t="n">
-        <v>42.12483604188523</v>
+        <v>43.14738094282636</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3369986883350818</v>
+        <v>0.3451790475426109</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3369986883350818</v>
+        <v>0.3451790475426109</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4052897444773447</v>
+        <v>0.417179933611578</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -640,53 +660,79 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4068.657925580214</v>
+        <v>792.5979743938103</v>
       </c>
       <c r="C3" t="n">
-        <v>63.78603237057635</v>
+        <v>28.15311660178692</v>
       </c>
       <c r="D3" t="n">
-        <v>63.78603237057635</v>
+        <v>28.15311660178692</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4196449498064234</v>
+        <v>0.3093749077119441</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4196449498064234</v>
+        <v>0.3093749077119441</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5310767979069277</v>
+        <v>0.3659887802720859</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4235.071276214746</v>
+      </c>
+      <c r="C4" t="n">
+        <v>65.07742524266573</v>
+      </c>
+      <c r="D4" t="n">
+        <v>65.07742524266573</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4281409555438535</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.4281409555438535</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.5447574412653363</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B4" t="n">
-        <v>1851.056486100551</v>
-      </c>
-      <c r="C4" t="n">
-        <v>43.02390598377315</v>
-      </c>
-      <c r="D4" t="n">
-        <v>31.72309198479667</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.2900741945689853</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.2900741945689853</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.3885994284734187</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="B5" t="n">
+        <v>1807.143534571279</v>
+      </c>
+      <c r="C5" t="n">
+        <v>42.51051087168066</v>
+      </c>
+      <c r="D5" t="n">
+        <v>31.36759818459419</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.2869861696072347</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.2869861696072347</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3827279721575625</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.5</v>
       </c>
     </row>

--- a/modelos/OBAGRA4451177/OBAGRA4451177_Sell Out_metricas.xlsx
+++ b/modelos/OBAGRA4451177/OBAGRA4451177_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,101 +473,121 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45021</v>
+        <v>45017</v>
       </c>
       <c r="B2" t="n">
-        <v>62.84688339821308</v>
+        <v>59.65854003698507</v>
       </c>
       <c r="C2" t="n">
-        <v>34.50924936461199</v>
+        <v>31.22147823951334</v>
       </c>
       <c r="D2" t="n">
-        <v>92.14837796214144</v>
+        <v>87.66048331097021</v>
       </c>
       <c r="E2" t="n">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45019</v>
+        <v>45012</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45027</v>
+        <v>45021</v>
       </c>
       <c r="B3" t="n">
-        <v>81.85261905717364</v>
+        <v>64.24458689862584</v>
       </c>
       <c r="C3" t="n">
-        <v>52.98721056596214</v>
+        <v>37.78855427610446</v>
       </c>
       <c r="D3" t="n">
-        <v>111.9979405361426</v>
+        <v>92.48199390009945</v>
       </c>
       <c r="E3" t="n">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45026</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45040</v>
+        <v>45027</v>
       </c>
       <c r="B4" t="n">
-        <v>52.94063786299043</v>
+        <v>82.62136328899049</v>
       </c>
       <c r="C4" t="n">
-        <v>23.82394172678105</v>
+        <v>51.49726976718669</v>
       </c>
       <c r="D4" t="n">
-        <v>83.00629801519334</v>
+        <v>111.9079895842372</v>
       </c>
       <c r="E4" t="n">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45033</v>
+        <v>45026</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45057</v>
+        <v>45040</v>
       </c>
       <c r="B5" t="n">
-        <v>86.92257475733427</v>
+        <v>58.62968128054383</v>
       </c>
       <c r="C5" t="n">
-        <v>55.30231773740757</v>
+        <v>28.49985643736279</v>
       </c>
       <c r="D5" t="n">
-        <v>116.8441313210075</v>
+        <v>88.42702842222798</v>
       </c>
       <c r="E5" t="n">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45054</v>
+        <v>45033</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
+        <v>45057</v>
+      </c>
+      <c r="B6" t="n">
+        <v>87.77669687837637</v>
+      </c>
+      <c r="C6" t="n">
+        <v>55.82066585942842</v>
+      </c>
+      <c r="D6" t="n">
+        <v>117.7674614359801</v>
+      </c>
+      <c r="E6" t="n">
+        <v>152</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>45061</v>
       </c>
-      <c r="B6" t="n">
-        <v>65.6758342321788</v>
-      </c>
-      <c r="C6" t="n">
-        <v>33.50628613684209</v>
-      </c>
-      <c r="D6" t="n">
-        <v>97.35947962980815</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="B7" t="n">
+        <v>71.92013357675253</v>
+      </c>
+      <c r="C7" t="n">
+        <v>43.44146061216932</v>
+      </c>
+      <c r="D7" t="n">
+        <v>105.7641086943913</v>
+      </c>
+      <c r="E7" t="n">
         <v>63</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F7" s="2" t="n">
         <v>45054</v>
       </c>
     </row>
@@ -582,7 +602,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,22 +657,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1861.696482225375</v>
+        <v>1795.948849483723</v>
       </c>
       <c r="C2" t="n">
-        <v>43.14738094282636</v>
+        <v>42.37863671100951</v>
       </c>
       <c r="D2" t="n">
-        <v>43.14738094282636</v>
+        <v>42.37863671100951</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3451790475426109</v>
+        <v>0.339029093688076</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3451790475426109</v>
+        <v>0.339029093688076</v>
       </c>
       <c r="G2" t="n">
-        <v>0.417179933611578</v>
+        <v>0.4082300206460181</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -663,22 +683,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>792.5979743938103</v>
+        <v>715.8521302251841</v>
       </c>
       <c r="C3" t="n">
-        <v>28.15311660178692</v>
+        <v>26.75541310137416</v>
       </c>
       <c r="D3" t="n">
-        <v>28.15311660178692</v>
+        <v>26.75541310137416</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3093749077119441</v>
+        <v>0.2940155285865292</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3093749077119441</v>
+        <v>0.2940155285865292</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3659887802720859</v>
+        <v>0.3446872272441338</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -689,22 +709,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4235.071276214746</v>
+        <v>4124.632663851951</v>
       </c>
       <c r="C4" t="n">
-        <v>65.07742524266573</v>
+        <v>64.22330312162363</v>
       </c>
       <c r="D4" t="n">
-        <v>65.07742524266573</v>
+        <v>64.22330312162363</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4281409555438535</v>
+        <v>0.4225217310633134</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4281409555438535</v>
+        <v>0.4225217310633134</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5447574412653363</v>
+        <v>0.5356926169868799</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -712,27 +732,53 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>821.3119170514764</v>
+      </c>
+      <c r="C5" t="n">
+        <v>28.65854003698507</v>
+      </c>
+      <c r="D5" t="n">
+        <v>28.65854003698507</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9244690334511314</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9244690334511314</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.6322303453219857</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B5" t="n">
-        <v>1807.143534571279</v>
-      </c>
-      <c r="C5" t="n">
-        <v>42.51051087168066</v>
-      </c>
-      <c r="D5" t="n">
-        <v>31.36759818459419</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.2869861696072347</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.2869861696072347</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.3827279721575625</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="B6" t="n">
+        <v>1517.850170341177</v>
+      </c>
+      <c r="C6" t="n">
+        <v>38.95959663986753</v>
+      </c>
+      <c r="D6" t="n">
+        <v>31.64522614810435</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.3113713424286259</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.3113713424286259</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.3829027318361955</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.5</v>
       </c>
     </row>

--- a/modelos/OBAGRA4451177/OBAGRA4451177_Sell Out_metricas.xlsx
+++ b/modelos/OBAGRA4451177/OBAGRA4451177_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,121 +473,101 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45017</v>
+        <v>45021</v>
       </c>
       <c r="B2" t="n">
-        <v>59.65854003698507</v>
+        <v>62.84688336092603</v>
       </c>
       <c r="C2" t="n">
-        <v>31.22147823951334</v>
+        <v>35.78170943252858</v>
       </c>
       <c r="D2" t="n">
-        <v>87.66048331097021</v>
+        <v>94.24812918872765</v>
       </c>
       <c r="E2" t="n">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45012</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45021</v>
+        <v>45027</v>
       </c>
       <c r="B3" t="n">
-        <v>64.24458689862584</v>
+        <v>81.85261905715659</v>
       </c>
       <c r="C3" t="n">
-        <v>37.78855427610446</v>
+        <v>52.37461196873748</v>
       </c>
       <c r="D3" t="n">
-        <v>92.48199390009945</v>
+        <v>109.0446860244392</v>
       </c>
       <c r="E3" t="n">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45019</v>
+        <v>45026</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45027</v>
+        <v>45040</v>
       </c>
       <c r="B4" t="n">
-        <v>82.62136328899049</v>
+        <v>52.9406378630184</v>
       </c>
       <c r="C4" t="n">
-        <v>51.49726976718669</v>
+        <v>20.95228142486846</v>
       </c>
       <c r="D4" t="n">
-        <v>111.9079895842372</v>
+        <v>82.86662867167408</v>
       </c>
       <c r="E4" t="n">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45026</v>
+        <v>45033</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45040</v>
+        <v>45057</v>
       </c>
       <c r="B5" t="n">
-        <v>58.62968128054383</v>
+        <v>86.92257489980447</v>
       </c>
       <c r="C5" t="n">
-        <v>28.49985643736279</v>
+        <v>57.07786840653494</v>
       </c>
       <c r="D5" t="n">
-        <v>88.42702842222798</v>
+        <v>117.5947804026378</v>
       </c>
       <c r="E5" t="n">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45033</v>
+        <v>45054</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45057</v>
+        <v>45061</v>
       </c>
       <c r="B6" t="n">
-        <v>87.77669687837637</v>
+        <v>65.67583437728793</v>
       </c>
       <c r="C6" t="n">
-        <v>55.82066585942842</v>
+        <v>32.29522259040769</v>
       </c>
       <c r="D6" t="n">
-        <v>117.7674614359801</v>
+        <v>98.99101654850109</v>
       </c>
       <c r="E6" t="n">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45054</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45061</v>
-      </c>
-      <c r="B7" t="n">
-        <v>71.92013357675253</v>
-      </c>
-      <c r="C7" t="n">
-        <v>43.44146061216932</v>
-      </c>
-      <c r="D7" t="n">
-        <v>105.7641086943913</v>
-      </c>
-      <c r="E7" t="n">
-        <v>63</v>
-      </c>
-      <c r="F7" s="2" t="n">
         <v>45054</v>
       </c>
     </row>
@@ -602,7 +582,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -657,22 +637,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1795.948849483723</v>
+        <v>1861.696482226847</v>
       </c>
       <c r="C2" t="n">
-        <v>42.37863671100951</v>
+        <v>43.14738094284341</v>
       </c>
       <c r="D2" t="n">
-        <v>42.37863671100951</v>
+        <v>43.14738094284341</v>
       </c>
       <c r="E2" t="n">
-        <v>0.339029093688076</v>
+        <v>0.3451790475427473</v>
       </c>
       <c r="F2" t="n">
-        <v>0.339029093688076</v>
+        <v>0.3451790475427473</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4082300206460181</v>
+        <v>0.4171799336117772</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -683,22 +663,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>715.8521302251841</v>
+        <v>792.5979764933037</v>
       </c>
       <c r="C3" t="n">
-        <v>26.75541310137416</v>
+        <v>28.15311663907397</v>
       </c>
       <c r="D3" t="n">
-        <v>26.75541310137416</v>
+        <v>28.15311663907397</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2940155285865292</v>
+        <v>0.309374908121692</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2940155285865292</v>
+        <v>0.309374908121692</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3446872272441338</v>
+        <v>0.3659887808455181</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -709,22 +689,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4124.632663851951</v>
+        <v>4235.071257671559</v>
       </c>
       <c r="C4" t="n">
-        <v>64.22330312162363</v>
+        <v>65.07742510019553</v>
       </c>
       <c r="D4" t="n">
-        <v>64.22330312162363</v>
+        <v>65.07742510019553</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4225217310633134</v>
+        <v>0.4281409546065495</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4225217310633134</v>
+        <v>0.4281409546065495</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5356926169868799</v>
+        <v>0.5447574397478903</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -732,53 +712,27 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>821.3119170514764</v>
+        <v>1807.143534957888</v>
       </c>
       <c r="C5" t="n">
-        <v>28.65854003698507</v>
+        <v>42.51051087622787</v>
       </c>
       <c r="D5" t="n">
-        <v>28.65854003698507</v>
+        <v>31.36759825713477</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9244690334511314</v>
+        <v>0.2869861707587707</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9244690334511314</v>
+        <v>0.2869861707587707</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6322303453219857</v>
+        <v>0.3827279732615929</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1517.850170341177</v>
-      </c>
-      <c r="C6" t="n">
-        <v>38.95959663986753</v>
-      </c>
-      <c r="D6" t="n">
-        <v>31.64522614810435</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.3113713424286259</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.3113713424286259</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.3829027318361955</v>
-      </c>
-      <c r="H6" t="n">
         <v>0.5</v>
       </c>
     </row>
